--- a/code_first_girls_project_documents /Group Seven Project Activity Log.xlsx
+++ b/code_first_girls_project_documents /Group Seven Project Activity Log.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -1020,6 +1020,23 @@
     <t>Final edit of project document to meet length requirements</t>
   </si>
   <si>
+    <t>Lottie - GitHub Project Submission Issues</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Git trouble - Git pull/push error: RPC failed; result=22, HTTP code = 408 - fix = git config http.postBuffer 500000000, git config http.lowSpeedTime 600 - then: files to large, suggested using Git LFS (large file storage), selected .csv &amp; .csv.gz files to convert to LFS, commit = fail &gt; repo over storage limit! - Delete large files we didn't need in the repo = git push --force ... nothing.... | create new branch 'project_submission' to divert from previous commits, push new branch... 
+remote: error: File data/csv/airbnb_datasets/airbnb_files_raw_uncleansed/detailed_listings_scraped_March23.csv is 170.39 MB; this exceeds GitHub's file size limit of 100.00 MB        
+remote: error: File archived_files/other/airbnb_combined_data_quality_check.csv is 319.28 MB; this exceeds GitHub's file size limit of 100.00 MB        
+remote: error: File data/csv/airbnb_datasets/files_not_used/reviews.csv.gz is 151.52 MB; this exceeds GitHub's file size limit of 100.00 MB        
+remote: error: File data/csv/airbnb_datasets/airbnb_files_raw_uncleansed/detailed_listings_scraped_June22.csv is 146.45 MB; this exceeds GitHub's file size limit of 100.00 MB        
+remote: error: GH001: Large files detected. You may want to try Git Large File Storage - https://git-lfs.github.com.        
+error: failed to push some refs to 'https://github.com/LottieJane1312/cfg_data2_group7_project.git'
+Not sure what to do now....  rebased to 'main' - undo commits : zipped/deleted large files - pushed repo without them - WORKED! - git.add zipped files - pushed... WORKED! 
+NB: Not sure how zipping the files will effect the running of the Notebooks but there's literally nothing I can do about it so please Kosi can you unzip when you clone the repo if this causes an issue. Thanks! - EDITED README. to give this info</t>
+  </si>
+  <si>
     <t>Lottie - Final Submission</t>
   </si>
   <si>
@@ -5524,19 +5541,19 @@
         <v>5.0</v>
       </c>
       <c r="B102" s="21">
-        <v>410315.0</v>
+        <v>45073.0</v>
       </c>
       <c r="C102" s="22" t="s">
         <v>177</v>
       </c>
       <c r="D102" s="23">
-        <v>120.0</v>
+        <v>90.0</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -5560,65 +5577,77 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="39"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="D103" s="39">
-        <f>SUM(D8:D102)</f>
-        <v>11920</v>
-      </c>
-      <c r="E103" s="39"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="43"/>
-      <c r="N103" s="43"/>
-      <c r="O103" s="43"/>
-      <c r="P103" s="43"/>
-      <c r="Q103" s="43"/>
-      <c r="R103" s="43"/>
-      <c r="S103" s="43"/>
-      <c r="T103" s="43"/>
-      <c r="U103" s="43"/>
-      <c r="V103" s="43"/>
-      <c r="W103" s="43"/>
-      <c r="X103" s="43"/>
-      <c r="Y103" s="43"/>
-      <c r="Z103" s="43"/>
+      <c r="A103" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="B103" s="21">
+        <v>410315.0</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103" s="23">
+        <v>240.0</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="44"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
+      <c r="A104" s="39"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D104" s="39">
+        <f>SUM(D8:D103)</f>
+        <v>12130</v>
+      </c>
+      <c r="E104" s="39"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
+      <c r="O104" s="43"/>
+      <c r="P104" s="43"/>
+      <c r="Q104" s="43"/>
+      <c r="R104" s="43"/>
+      <c r="S104" s="43"/>
+      <c r="T104" s="43"/>
+      <c r="U104" s="43"/>
+      <c r="V104" s="43"/>
+      <c r="W104" s="43"/>
+      <c r="X104" s="43"/>
+      <c r="Y104" s="43"/>
+      <c r="Z104" s="43"/>
     </row>
     <row r="105">
       <c r="A105" s="44"/>
@@ -5901,12 +5930,12 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="46"/>
-      <c r="B115" s="47"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="10"/>
+      <c r="A115" s="44"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="6"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -6069,12 +6098,12 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="5"/>
-      <c r="B121" s="49"/>
-      <c r="C121" s="50"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="52"/>
+      <c r="A121" s="46"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="10"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -6330,7 +6359,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
-      <c r="J130" s="53"/>
+      <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -6358,7 +6387,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
-      <c r="J131" s="54"/>
+      <c r="J131" s="53"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -6386,7 +6415,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
-      <c r="J132" s="53"/>
+      <c r="J132" s="54"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -7030,7 +7059,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
+      <c r="J155" s="53"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
@@ -7552,12 +7581,12 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="2"/>
-      <c r="B174" s="55"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="15"/>
+    <row r="174">
+      <c r="A174" s="5"/>
+      <c r="B174" s="49"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="51"/>
+      <c r="E174" s="51"/>
       <c r="F174" s="52"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
@@ -32695,6 +32724,34 @@
       <c r="X1071" s="2"/>
       <c r="Y1071" s="2"/>
       <c r="Z1071" s="2"/>
+    </row>
+    <row r="1072" ht="15.75" customHeight="1">
+      <c r="A1072" s="2"/>
+      <c r="B1072" s="55"/>
+      <c r="C1072" s="2"/>
+      <c r="D1072" s="15"/>
+      <c r="E1072" s="15"/>
+      <c r="F1072" s="52"/>
+      <c r="G1072" s="2"/>
+      <c r="H1072" s="2"/>
+      <c r="I1072" s="2"/>
+      <c r="J1072" s="2"/>
+      <c r="K1072" s="2"/>
+      <c r="L1072" s="2"/>
+      <c r="M1072" s="2"/>
+      <c r="N1072" s="2"/>
+      <c r="O1072" s="2"/>
+      <c r="P1072" s="2"/>
+      <c r="Q1072" s="2"/>
+      <c r="R1072" s="2"/>
+      <c r="S1072" s="2"/>
+      <c r="T1072" s="2"/>
+      <c r="U1072" s="2"/>
+      <c r="V1072" s="2"/>
+      <c r="W1072" s="2"/>
+      <c r="X1072" s="2"/>
+      <c r="Y1072" s="2"/>
+      <c r="Z1072" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
